--- a/biology/Médecine/1333_en_santé_et_médecine/1333_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1333_en_santé_et_médecine/1333_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1333_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1333_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1333 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1333_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1333_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Un document de police mentionne une léproserie située près du château de Valcabrère au pays de Comminges, dans un ancien hospice de l'ordre du Temple[1].
-La république de Venise se dote d'un jardin médicinal[2].
-À Cracovie, apparaissent les premiers apothicaires attestés en Pologne, parmi lesquels on compte Jacobus Gallicus apothecarius regis (« apothicaire du roi[3] »).
-1333-1342 : floruit à Paris Émeline Dieu-la-Voie, dite la Duchesse, matrone jurée du prieuré de Saint-Martin-des-Champs, puis du roi Philippe VI[4].
-1333-1360 : huit médecins ou chirurgiens sont attachés à la cour du roi de France Philippe VI de Valois : Gilbert Hamelin († 1360)[5], Premier médecin, Guy de Vigevano, Thomas Ogier[6], Jean de Lyons[7], Robert et Gilles de Denneville[8], Étienne de Chaumont[5] et Jean de Besançon[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Un document de police mentionne une léproserie située près du château de Valcabrère au pays de Comminges, dans un ancien hospice de l'ordre du Temple.
+La république de Venise se dote d'un jardin médicinal.
+À Cracovie, apparaissent les premiers apothicaires attestés en Pologne, parmi lesquels on compte Jacobus Gallicus apothecarius regis (« apothicaire du roi »).
+1333-1342 : floruit à Paris Émeline Dieu-la-Voie, dite la Duchesse, matrone jurée du prieuré de Saint-Martin-des-Champs, puis du roi Philippe VI.
+1333-1360 : huit médecins ou chirurgiens sont attachés à la cour du roi de France Philippe VI de Valois : Gilbert Hamelin († 1360), Premier médecin, Guy de Vigevano, Thomas Ogier, Jean de Lyons, Robert et Gilles de Denneville, Étienne de Chaumont et Jean de Besançon.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1333_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1333_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>À la demande du sultan mamelouk Kélaoun, l'hippiatre et hippologue andalou El Baïtar rédige le Naceri, « l’un des textes les plus connus [et] les plus représentatifs de la littérature hippologique arabe classique[9] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À la demande du sultan mamelouk Kélaoun, l'hippiatre et hippologue andalou El Baïtar rédige le Naceri, « l’un des textes les plus connus [et] les plus représentatifs de la littérature hippologique arabe classique ».</t>
         </is>
       </c>
     </row>
